--- a/Produits.xlsx
+++ b/Produits.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\A\B43Officiel\tps\TP2\Corrige\ProjetTp2\"/>
     </mc:Choice>
@@ -72,6 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,11 +417,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/Produits.xlsx
+++ b/Produits.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Quantité en stock</t>
   </si>
@@ -442,173 +442,173 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>777</v>
+      <c r="A2" s="1" t="n">
+        <v>555.0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>399.99</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
+      <c r="C4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="n">
         <v>89.99</v>
       </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>666</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>599.99</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>129.99</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="n">
+        <v>888.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>219.99</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="n">
+        <v>999.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="n">
+        <v>666.0</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
+      <c r="C10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D10" t="n">
         <v>259.99</v>
       </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>444</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>21.99</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>333</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E10" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
+      <c r="C11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D11" t="n">
         <v>109.99</v>
       </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>599.99</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>399.99</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>999</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>101</v>
-      </c>
-      <c r="D8">
-        <v>2.99</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>919</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>129.99</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>888</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>219.99</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>555</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>49.99</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
+      <c r="E11" t="n">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
